--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -69,9 +69,6 @@
     <t>&lt;&lt; самый большой разрыв в рейтинге</t>
   </si>
   <si>
-    <t>Дима</t>
-  </si>
-  <si>
     <t>Гоша</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Макс</t>
+  </si>
+  <si>
+    <t>Дима Н</t>
   </si>
 </sst>
 </file>
@@ -564,6 +564,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,12 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,7 +922,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -938,19 +938,19 @@
     <row r="1" spans="1:9" s="3" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>3</v>
@@ -958,21 +958,21 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="str">
@@ -993,12 +993,12 @@
       </c>
       <c r="F3" s="36" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1007,12 +1007,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C5" s="34" t="str">
         <f>$D$1</f>
@@ -1033,7 +1033,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1042,12 +1042,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C7" s="33" t="str">
         <f>$F$1</f>
@@ -1068,7 +1068,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1077,12 +1077,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C9" s="33" t="str">
         <f>$E$1</f>
@@ -1103,7 +1103,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1112,12 +1112,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C11" s="33" t="str">
         <f>$F$1</f>
@@ -1138,7 +1138,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -1147,7 +1147,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32" t="str">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="F13" s="36" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -1182,12 +1182,12 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C15" s="33" t="str">
         <f>$C$1</f>
@@ -1208,7 +1208,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -1217,12 +1217,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C17" s="33" t="str">
         <f>$D$1</f>
@@ -1243,7 +1243,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1252,12 +1252,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C19" s="33" t="str">
         <f>$F$1</f>
@@ -1278,7 +1278,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1287,12 +1287,12 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C21" s="33" t="str">
         <f>$E$1</f>
@@ -1313,7 +1313,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1322,7 +1322,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32" t="str">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="F23" s="36" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1357,12 +1357,12 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C25" s="33" t="str">
         <f>$E$1</f>
@@ -1383,7 +1383,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1392,12 +1392,12 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C27" s="33" t="str">
         <f>$C$1</f>
@@ -1418,7 +1418,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1427,12 +1427,12 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C29" s="33" t="str">
         <f>$D$1</f>
@@ -1453,7 +1453,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1462,12 +1462,12 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32" t="str">
         <f>$B$1</f>
-        <v>Дима</v>
+        <v>Дима Н</v>
       </c>
       <c r="C31" s="33" t="str">
         <f>$C$1</f>
@@ -1491,7 +1491,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -1501,6 +1501,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -1513,11 +1518,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1593,14 +1593,14 @@
     </row>
     <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -1609,22 +1609,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
+      <c r="O2" s="54"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -1686,7 +1686,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1704,7 +1704,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -1766,7 +1766,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1784,7 +1784,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -1846,7 +1846,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1864,7 +1864,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -1926,7 +1926,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1944,7 +1944,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -2006,7 +2006,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -2024,7 +2024,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -2086,7 +2086,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -2104,7 +2104,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -2166,7 +2166,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -2184,7 +2184,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -2246,7 +2246,7 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -2264,7 +2264,7 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -2326,7 +2326,7 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -2344,7 +2344,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -2406,7 +2406,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -2424,7 +2424,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -2486,7 +2486,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -2504,7 +2504,7 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -2566,7 +2566,7 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -2584,7 +2584,7 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -2646,7 +2646,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -2664,7 +2664,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -2726,7 +2726,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -2744,7 +2744,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -2806,7 +2806,7 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -2825,6 +2825,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -2835,18 +2847,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2925,14 +2925,14 @@
     </row>
     <row r="2" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -2941,23 +2941,23 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -3023,7 +3023,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -3042,7 +3042,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -3108,7 +3108,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3127,7 +3127,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -3193,7 +3193,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -3212,7 +3212,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -3278,7 +3278,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3297,7 +3297,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -3363,7 +3363,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -3382,7 +3382,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -3448,7 +3448,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -3467,7 +3467,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -3533,7 +3533,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -3552,7 +3552,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -3618,7 +3618,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -3637,7 +3637,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -3703,7 +3703,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -3722,7 +3722,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -3788,7 +3788,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -3807,7 +3807,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -3873,7 +3873,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -3892,7 +3892,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -3958,7 +3958,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -3977,7 +3977,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -4043,7 +4043,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4062,7 +4062,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -4128,7 +4128,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -4147,7 +4147,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -4213,7 +4213,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -4233,6 +4233,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -4245,16 +4255,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4336,14 +4336,14 @@
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4352,14 +4352,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -4441,7 +4441,7 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -4461,7 +4461,7 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -4531,7 +4531,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -4551,7 +4551,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -4621,7 +4621,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -4641,7 +4641,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -4711,7 +4711,7 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -4731,7 +4731,7 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -4801,7 +4801,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -4821,7 +4821,7 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -4891,7 +4891,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -4911,7 +4911,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -4981,7 +4981,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -5001,7 +5001,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -5071,7 +5071,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -5091,7 +5091,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -5161,7 +5161,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -5181,7 +5181,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -5251,7 +5251,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -5271,7 +5271,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -5341,7 +5341,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -5361,7 +5361,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -5431,7 +5431,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -5451,7 +5451,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -5521,7 +5521,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -5541,7 +5541,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -5611,7 +5611,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -5631,7 +5631,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -5701,7 +5701,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -5722,6 +5722,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A18"/>
@@ -5730,21 +5745,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5830,14 +5830,14 @@
     </row>
     <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5846,14 +5846,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -5942,7 +5942,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -5963,7 +5963,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -6037,7 +6037,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -6058,7 +6058,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -6132,7 +6132,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -6153,7 +6153,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -6227,7 +6227,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -6248,7 +6248,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -6322,7 +6322,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -6343,7 +6343,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -6417,7 +6417,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -6438,7 +6438,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -6512,7 +6512,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -6533,7 +6533,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -6607,7 +6607,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -6628,7 +6628,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -6702,7 +6702,7 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -6723,7 +6723,7 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -6797,7 +6797,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -6818,7 +6818,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -6892,7 +6892,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -6913,7 +6913,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -6987,7 +6987,7 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -7008,7 +7008,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -7082,7 +7082,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -7103,7 +7103,7 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -7177,7 +7177,7 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -7198,7 +7198,7 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -7272,7 +7272,7 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -7294,6 +7294,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -7306,17 +7317,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7405,14 +7405,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7421,14 +7421,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7437,16 +7437,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="52" t="s">
+      <c r="R2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -7524,7 +7524,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -7546,7 +7546,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -7624,7 +7624,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -7646,7 +7646,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -7724,7 +7724,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -7746,7 +7746,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -7824,7 +7824,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -7846,7 +7846,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -7924,7 +7924,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -7946,7 +7946,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -8024,7 +8024,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -8046,7 +8046,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -8124,7 +8124,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -8146,7 +8146,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -8224,7 +8224,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -8246,7 +8246,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -8324,7 +8324,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -8346,7 +8346,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -8424,7 +8424,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -8446,7 +8446,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -8524,7 +8524,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -8546,7 +8546,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -8624,7 +8624,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -8646,7 +8646,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -8724,7 +8724,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -8746,7 +8746,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -8824,7 +8824,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -8846,7 +8846,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -8924,7 +8924,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -8950,6 +8950,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -8966,14 +8974,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -9065,14 +9065,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9081,14 +9081,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -9187,7 +9187,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -9210,7 +9210,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -9292,7 +9292,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -9315,7 +9315,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -9397,7 +9397,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -9420,7 +9420,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -9502,7 +9502,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -9525,7 +9525,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -9607,7 +9607,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -9630,7 +9630,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -9712,7 +9712,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -9735,7 +9735,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -9817,7 +9817,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -9840,7 +9840,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -9922,7 +9922,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -9945,7 +9945,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -10027,7 +10027,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -10050,7 +10050,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -10132,7 +10132,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -10155,7 +10155,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -10237,7 +10237,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -10260,7 +10260,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -10342,7 +10342,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -10365,7 +10365,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -10447,7 +10447,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -10470,7 +10470,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -10552,7 +10552,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -10575,7 +10575,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -10657,7 +10657,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -10681,6 +10681,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -10696,15 +10705,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10799,14 +10799,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10815,14 +10815,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +10842,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -10928,7 +10928,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -10952,7 +10952,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -11038,7 +11038,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -11062,7 +11062,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -11148,7 +11148,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -11172,7 +11172,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -11258,7 +11258,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -11282,7 +11282,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -11368,7 +11368,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -11392,7 +11392,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -11478,7 +11478,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -11502,7 +11502,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -11588,7 +11588,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -11612,7 +11612,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -11698,7 +11698,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -11722,7 +11722,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -11808,7 +11808,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -11832,7 +11832,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -11918,7 +11918,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -11942,7 +11942,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -12028,7 +12028,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -12052,7 +12052,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -12138,7 +12138,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -12162,7 +12162,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -12248,7 +12248,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -12272,7 +12272,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -12358,7 +12358,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -12382,7 +12382,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -12468,7 +12468,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -12493,6 +12493,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -12509,15 +12518,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -12571,14 +12571,14 @@
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32">
@@ -12616,7 +12616,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -12626,7 +12626,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32">
@@ -12656,7 +12656,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -12666,7 +12666,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32">
@@ -12696,7 +12696,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -12706,7 +12706,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32">
@@ -12736,7 +12736,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -12746,7 +12746,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32">
@@ -12776,7 +12776,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -12786,7 +12786,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32">
@@ -12816,7 +12816,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -12826,7 +12826,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32">
@@ -12856,7 +12856,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -12866,7 +12866,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32">
@@ -12896,7 +12896,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -12906,7 +12906,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32">
@@ -12936,7 +12936,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -12946,7 +12946,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32">
@@ -12976,7 +12976,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -12986,7 +12986,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32">
@@ -13016,7 +13016,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -13026,7 +13026,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32">
@@ -13056,7 +13056,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -13066,7 +13066,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32">
@@ -13096,7 +13096,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -13106,7 +13106,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32">
@@ -13139,7 +13139,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13149,7 +13149,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32">
@@ -13179,7 +13179,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13190,6 +13190,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -13200,14 +13208,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13260,14 +13260,14 @@
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -13276,7 +13276,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -13310,7 +13310,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -13321,7 +13321,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -13355,7 +13355,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -13366,7 +13366,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -13400,7 +13400,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -13411,7 +13411,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -13445,7 +13445,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -13456,7 +13456,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -13490,7 +13490,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -13501,7 +13501,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -13535,7 +13535,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -13546,7 +13546,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -13580,7 +13580,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -13591,7 +13591,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -13625,7 +13625,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -13636,7 +13636,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -13670,7 +13670,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -13681,7 +13681,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -13715,7 +13715,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -13726,7 +13726,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -13760,7 +13760,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -13771,7 +13771,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -13805,7 +13805,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -13816,7 +13816,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -13850,7 +13850,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -13861,7 +13861,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -13895,7 +13895,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13906,7 +13906,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -13940,7 +13940,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13952,6 +13952,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -13968,8 +13970,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -14025,14 +14025,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14044,7 +14044,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -14082,7 +14082,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -14094,7 +14094,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -14132,7 +14132,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -14144,7 +14144,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -14182,7 +14182,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -14194,7 +14194,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -14232,7 +14232,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -14244,7 +14244,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -14282,7 +14282,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -14294,7 +14294,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -14332,7 +14332,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -14344,7 +14344,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -14382,7 +14382,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -14394,7 +14394,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -14432,7 +14432,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -14444,7 +14444,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -14482,7 +14482,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -14494,7 +14494,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -14532,7 +14532,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -14544,7 +14544,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -14582,7 +14582,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -14594,7 +14594,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -14632,7 +14632,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -14644,7 +14644,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -14682,7 +14682,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -14694,7 +14694,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -14732,7 +14732,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -14744,7 +14744,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -14782,7 +14782,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -14795,13 +14795,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -14814,6 +14807,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14873,14 +14873,14 @@
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14895,7 +14895,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -14937,7 +14937,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -14950,7 +14950,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -14992,7 +14992,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15005,7 +15005,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15047,7 +15047,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -15060,7 +15060,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -15102,7 +15102,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -15115,7 +15115,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -15157,7 +15157,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -15170,7 +15170,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -15212,7 +15212,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -15225,7 +15225,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -15267,7 +15267,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -15280,7 +15280,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -15322,7 +15322,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -15335,7 +15335,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -15377,7 +15377,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -15390,7 +15390,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -15432,7 +15432,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -15445,7 +15445,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -15487,7 +15487,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -15500,7 +15500,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -15542,7 +15542,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -15555,7 +15555,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -15597,7 +15597,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -15610,7 +15610,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -15652,7 +15652,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -15665,7 +15665,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -15707,7 +15707,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -15721,14 +15721,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -15740,6 +15732,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15802,14 +15802,14 @@
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -15825,7 +15825,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -15871,7 +15871,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -15885,7 +15885,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -15931,7 +15931,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15945,7 +15945,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15991,7 +15991,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -16005,7 +16005,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -16051,7 +16051,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -16065,7 +16065,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -16111,7 +16111,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -16125,7 +16125,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -16171,7 +16171,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -16185,7 +16185,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -16231,7 +16231,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -16245,7 +16245,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -16291,7 +16291,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -16305,7 +16305,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -16351,7 +16351,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -16365,7 +16365,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -16411,7 +16411,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -16425,7 +16425,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -16471,7 +16471,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -16485,7 +16485,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -16531,7 +16531,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -16545,7 +16545,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -16591,7 +16591,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -16605,7 +16605,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -16651,7 +16651,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -16665,7 +16665,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -16711,7 +16711,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -16726,14 +16726,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
@@ -16746,6 +16738,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16811,14 +16811,14 @@
     </row>
     <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -16835,7 +16835,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -16885,7 +16885,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -16900,7 +16900,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -16950,7 +16950,7 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -16965,7 +16965,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -17015,7 +17015,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -17030,7 +17030,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -17080,7 +17080,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -17095,7 +17095,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -17145,7 +17145,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -17160,7 +17160,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -17210,7 +17210,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -17225,7 +17225,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -17275,7 +17275,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -17290,7 +17290,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -17340,7 +17340,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -17355,7 +17355,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -17405,7 +17405,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -17420,7 +17420,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -17470,7 +17470,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -17485,7 +17485,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -17535,7 +17535,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -17550,7 +17550,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -17600,7 +17600,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -17615,7 +17615,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -17665,7 +17665,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -17680,7 +17680,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -17730,7 +17730,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -17745,7 +17745,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -17795,7 +17795,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -17811,6 +17811,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A15:A16"/>
@@ -17827,10 +17831,6 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -17899,14 +17899,14 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -17915,18 +17915,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -17980,7 +17980,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -17996,7 +17996,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -18050,7 +18050,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -18066,7 +18066,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -18120,7 +18120,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -18136,7 +18136,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -18190,7 +18190,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -18206,7 +18206,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -18260,7 +18260,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -18276,7 +18276,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -18330,7 +18330,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -18346,7 +18346,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -18400,7 +18400,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -18416,7 +18416,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -18470,7 +18470,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -18486,7 +18486,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -18540,7 +18540,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -18556,7 +18556,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -18610,7 +18610,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -18626,7 +18626,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -18680,7 +18680,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -18696,7 +18696,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -18750,7 +18750,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -18766,7 +18766,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -18820,7 +18820,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -18836,7 +18836,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -18890,7 +18890,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -18906,7 +18906,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -18960,7 +18960,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -18977,15 +18977,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -18998,6 +18989,15 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -19070,14 +19070,14 @@
     </row>
     <row r="2" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -19086,21 +19086,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -19158,7 +19158,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -19175,7 +19175,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -19233,7 +19233,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -19250,7 +19250,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -19308,7 +19308,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -19325,7 +19325,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -19383,7 +19383,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -19400,7 +19400,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -19458,7 +19458,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -19475,7 +19475,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -19533,7 +19533,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -19550,7 +19550,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -19608,7 +19608,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -19625,7 +19625,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -19683,7 +19683,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -19700,7 +19700,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -19758,7 +19758,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -19775,7 +19775,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -19833,7 +19833,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -19850,7 +19850,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -19908,7 +19908,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -19925,7 +19925,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -19983,7 +19983,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -20000,7 +20000,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -20058,7 +20058,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -20075,7 +20075,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -20133,7 +20133,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -20150,7 +20150,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -20208,7 +20208,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -20226,6 +20226,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -20236,17 +20247,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="11">
   <si>
     <t>Левая площадка</t>
   </si>
@@ -72,16 +72,19 @@
     <t>Гоша</t>
   </si>
   <si>
-    <t>Толя</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
     <t>Макс</t>
   </si>
   <si>
     <t>Дима Н</t>
+  </si>
+  <si>
+    <t>Анатолий</t>
+  </si>
+  <si>
+    <t>Женя</t>
+  </si>
+  <si>
+    <t>Коля</t>
   </si>
 </sst>
 </file>
@@ -564,12 +567,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,6 +575,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -937,20 +940,20 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>8</v>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15">
+        <v>5</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>3</v>
@@ -958,47 +961,47 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="52">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="C3" s="33" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="D3" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E3" s="35" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="F3" s="36" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="33">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="35">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="36">
+        <f>$B$1</f>
+        <v>1</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1007,33 +1010,33 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="52">
-        <v>2</v>
-      </c>
-      <c r="B5" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C5" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="D5" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E5" s="35" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="F5" s="36" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
+      <c r="A5" s="55">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="35">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="36">
+        <f>$F$1</f>
+        <v>5</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1042,33 +1045,33 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="52">
-        <v>3</v>
-      </c>
-      <c r="B7" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="D7" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E7" s="35" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="F7" s="36" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
+      <c r="A7" s="55">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="35">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="36">
+        <f>$E$1</f>
+        <v>4</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1077,33 +1080,33 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="52">
-        <v>4</v>
-      </c>
-      <c r="B9" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C9" s="33" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="D9" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E9" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F9" s="36" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
+      <c r="A9" s="55">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="33">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="36">
+        <f>$C$1</f>
+        <v>2</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1112,33 +1115,33 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="52">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C11" s="33" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="D11" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E11" s="35" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="F11" s="36" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
+      <c r="A11" s="55">
+        <v>5</v>
+      </c>
+      <c r="B11" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="33">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="35">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <f>$D$1</f>
+        <v>3</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -1147,33 +1150,33 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="52">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="C13" s="33" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="D13" s="34" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="E13" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F13" s="36" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
+      <c r="A13" s="55">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="33">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="34">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="36">
+        <f>$B$1</f>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -1182,33 +1185,33 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="52">
-        <v>7</v>
-      </c>
-      <c r="B15" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C15" s="33" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="D15" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E15" s="35" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="F15" s="36" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
+      <c r="A15" s="55">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="35">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="36">
+        <f>$F$1</f>
+        <v>5</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -1217,33 +1220,33 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="52">
-        <v>8</v>
-      </c>
-      <c r="B17" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C17" s="33" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="D17" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E17" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F17" s="36" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
+      <c r="A17" s="55">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="36">
+        <f>$E$1</f>
+        <v>4</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1252,33 +1255,33 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="52">
-        <v>9</v>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C19" s="33" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="D19" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E19" s="35" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="F19" s="36" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
+      <c r="A19" s="55">
+        <v>9</v>
+      </c>
+      <c r="B19" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="33">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="35">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="36">
+        <f>$C$1</f>
+        <v>2</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1287,33 +1290,33 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
-      <c r="B21" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C21" s="33" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="D21" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E21" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F21" s="36" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
+      <c r="B21" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="33">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="36">
+        <f>$D$1</f>
+        <v>3</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1322,33 +1325,33 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
-      <c r="B23" s="32" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="C23" s="33" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="D23" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E23" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F23" s="36" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
+      <c r="B23" s="32">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="33">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="D23" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="36">
+        <f>$B$1</f>
+        <v>1</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1357,33 +1360,33 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
-      <c r="B25" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C25" s="33" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="D25" s="34" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="E25" s="35" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="F25" s="36" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
+      <c r="B25" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="33">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="34">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="35">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="F25" s="36">
+        <f>$F$1</f>
+        <v>5</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1392,33 +1395,33 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
-      <c r="B27" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C27" s="33" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="D27" s="34" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="E27" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F27" s="36" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
+      <c r="B27" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="33">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="34">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="36">
+        <f>$E$1</f>
+        <v>4</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1427,33 +1430,33 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
-      <c r="B29" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C29" s="33" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
-      </c>
-      <c r="D29" s="34" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="E29" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F29" s="36" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
+      <c r="B29" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="33">
+        <f>$D$1</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="34">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F29" s="36">
+        <f>$C$1</f>
+        <v>2</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1462,28 +1465,28 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
-      <c r="B31" s="32" t="str">
-        <f>$B$1</f>
-        <v>Дима Н</v>
-      </c>
-      <c r="C31" s="33" t="str">
-        <f>$C$1</f>
-        <v>Гоша</v>
-      </c>
-      <c r="D31" s="34" t="str">
-        <f>$E$1</f>
-        <v>Денис</v>
-      </c>
-      <c r="E31" s="35" t="str">
-        <f>$F$1</f>
-        <v>Макс</v>
-      </c>
-      <c r="F31" s="36" t="str">
-        <f>$D$1</f>
-        <v>Толя</v>
+      <c r="B31" s="32">
+        <f>$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="33">
+        <f>$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="34">
+        <f>$E$1</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="35">
+        <f>$F$1</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="36">
+        <f>$D$1</f>
+        <v>3</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>4</v>
@@ -1491,7 +1494,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -1501,11 +1504,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -1518,6 +1516,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1593,14 +1596,14 @@
     </row>
     <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -1609,22 +1612,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="54"/>
+      <c r="O2" s="52"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -1686,7 +1689,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1704,7 +1707,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -1766,7 +1769,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1784,7 +1787,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -1846,7 +1849,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1864,7 +1867,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -1926,7 +1929,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1944,7 +1947,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -2006,7 +2009,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -2024,7 +2027,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -2086,7 +2089,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -2104,7 +2107,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -2166,7 +2169,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -2184,7 +2187,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -2246,7 +2249,7 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -2264,7 +2267,7 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -2326,7 +2329,7 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -2344,7 +2347,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -2406,7 +2409,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -2424,7 +2427,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -2486,7 +2489,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -2504,7 +2507,7 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -2566,7 +2569,7 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -2584,7 +2587,7 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -2646,7 +2649,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -2664,7 +2667,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -2726,7 +2729,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -2744,7 +2747,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -2806,7 +2809,7 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -2825,18 +2828,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -2847,6 +2838,18 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2925,14 +2928,14 @@
     </row>
     <row r="2" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -2941,23 +2944,23 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -3023,7 +3026,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -3042,7 +3045,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -3108,7 +3111,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3127,7 +3130,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -3193,7 +3196,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -3212,7 +3215,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -3278,7 +3281,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3297,7 +3300,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -3363,7 +3366,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -3382,7 +3385,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -3448,7 +3451,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -3467,7 +3470,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -3533,7 +3536,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -3552,7 +3555,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -3618,7 +3621,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -3637,7 +3640,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -3703,7 +3706,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -3722,7 +3725,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -3788,7 +3791,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -3807,7 +3810,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -3873,7 +3876,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -3892,7 +3895,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -3958,7 +3961,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -3977,7 +3980,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -4043,7 +4046,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4062,7 +4065,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -4128,7 +4131,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -4147,7 +4150,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -4213,7 +4216,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -4233,16 +4236,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -4255,6 +4248,16 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4336,14 +4339,14 @@
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4352,14 +4355,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4374,7 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -4441,7 +4444,7 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -4461,7 +4464,7 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -4531,7 +4534,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -4551,7 +4554,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -4621,7 +4624,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -4641,7 +4644,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -4711,7 +4714,7 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -4731,7 +4734,7 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -4801,7 +4804,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -4821,7 +4824,7 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -4891,7 +4894,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -4911,7 +4914,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -4981,7 +4984,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -5001,7 +5004,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -5071,7 +5074,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -5091,7 +5094,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -5161,7 +5164,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -5181,7 +5184,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -5251,7 +5254,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -5271,7 +5274,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -5341,7 +5344,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -5361,7 +5364,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -5431,7 +5434,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -5451,7 +5454,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -5521,7 +5524,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -5541,7 +5544,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -5611,7 +5614,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -5631,7 +5634,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -5701,7 +5704,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -5722,6 +5725,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
@@ -5730,21 +5748,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5830,14 +5833,14 @@
     </row>
     <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5846,14 +5849,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5868,7 +5871,7 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -5942,7 +5945,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -5963,7 +5966,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -6037,7 +6040,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -6058,7 +6061,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -6132,7 +6135,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -6153,7 +6156,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -6227,7 +6230,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -6248,7 +6251,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -6322,7 +6325,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -6343,7 +6346,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -6417,7 +6420,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -6438,7 +6441,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -6512,7 +6515,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -6533,7 +6536,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -6607,7 +6610,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -6628,7 +6631,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -6702,7 +6705,7 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -6723,7 +6726,7 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -6797,7 +6800,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -6818,7 +6821,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -6892,7 +6895,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -6913,7 +6916,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -6987,7 +6990,7 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -7008,7 +7011,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -7082,7 +7085,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -7103,7 +7106,7 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -7177,7 +7180,7 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -7198,7 +7201,7 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -7272,7 +7275,7 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -7294,17 +7297,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -7317,6 +7309,17 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7405,14 +7408,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7421,14 +7424,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7437,16 +7440,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="60"/>
-      <c r="R2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="54" t="s">
+      <c r="R2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="52" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -7524,7 +7527,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -7546,7 +7549,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -7624,7 +7627,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -7646,7 +7649,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -7724,7 +7727,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -7746,7 +7749,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -7824,7 +7827,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -7846,7 +7849,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -7924,7 +7927,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -7946,7 +7949,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -8024,7 +8027,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -8046,7 +8049,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -8124,7 +8127,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -8146,7 +8149,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -8224,7 +8227,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -8246,7 +8249,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -8324,7 +8327,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -8346,7 +8349,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -8424,7 +8427,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -8446,7 +8449,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -8524,7 +8527,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -8546,7 +8549,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -8624,7 +8627,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -8646,7 +8649,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -8724,7 +8727,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -8746,7 +8749,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -8824,7 +8827,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -8846,7 +8849,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -8924,7 +8927,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -8950,14 +8953,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -8974,6 +8969,14 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -9065,14 +9068,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9081,14 +9084,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9105,7 +9108,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -9187,7 +9190,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -9210,7 +9213,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -9292,7 +9295,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -9315,7 +9318,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -9397,7 +9400,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -9420,7 +9423,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -9502,7 +9505,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -9525,7 +9528,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -9607,7 +9610,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -9630,7 +9633,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -9712,7 +9715,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -9735,7 +9738,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -9817,7 +9820,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -9840,7 +9843,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -9922,7 +9925,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -9945,7 +9948,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -10027,7 +10030,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -10050,7 +10053,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -10132,7 +10135,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -10155,7 +10158,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -10237,7 +10240,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -10260,7 +10263,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -10342,7 +10345,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -10365,7 +10368,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -10447,7 +10450,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -10470,7 +10473,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -10552,7 +10555,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -10575,7 +10578,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -10657,7 +10660,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -10681,15 +10684,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -10705,6 +10699,15 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10799,14 +10802,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10815,14 +10818,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +10845,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -10928,7 +10931,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -10952,7 +10955,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -11038,7 +11041,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -11062,7 +11065,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -11148,7 +11151,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -11172,7 +11175,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -11258,7 +11261,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -11282,7 +11285,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -11368,7 +11371,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -11392,7 +11395,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -11478,7 +11481,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -11502,7 +11505,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -11588,7 +11591,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -11612,7 +11615,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -11698,7 +11701,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -11722,7 +11725,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -11808,7 +11811,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -11832,7 +11835,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -11918,7 +11921,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -11942,7 +11945,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -12028,7 +12031,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -12052,7 +12055,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -12138,7 +12141,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -12162,7 +12165,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -12248,7 +12251,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -12272,7 +12275,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -12358,7 +12361,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -12382,7 +12385,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -12468,7 +12471,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -12493,15 +12496,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -12518,6 +12512,15 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -12531,8 +12534,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -12547,23 +12550,23 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="12">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15">
-        <v>6</v>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>3</v>
@@ -12571,14 +12574,14 @@
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -12586,552 +12589,604 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="52">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="33">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="34">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="35">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="36">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="G3" s="36">
-        <f>$F$1</f>
-        <v>5</v>
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C3" s="33" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D3" s="34" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E3" s="35" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="F3" s="36" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="G3" s="36" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="52">
-        <v>2</v>
-      </c>
-      <c r="B5" s="32">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="33">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="34">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="35">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F5" s="36">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="36">
-        <f>$D$1</f>
-        <v>3</v>
+      <c r="A5" s="55">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C5" s="33" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="D5" s="34" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E5" s="35" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F5" s="36" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G5" s="36" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="52">
-        <v>3</v>
-      </c>
-      <c r="B7" s="32">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="33">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="34">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="35">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="36">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="36">
-        <f>$G$1</f>
-        <v>6</v>
+      <c r="A7" s="55">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="C7" s="33" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E7" s="35" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F7" s="36" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G7" s="36" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="52">
-        <v>4</v>
-      </c>
-      <c r="B9" s="32">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="33">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D9" s="34">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="35">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="36">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="36">
-        <f>$F$1</f>
-        <v>5</v>
+      <c r="A9" s="55">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C9" s="33" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E9" s="35" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="F9" s="36" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G9" s="36" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <v>21</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="52">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="33">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="34">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="35">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="36">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="36">
-        <f>$D$1</f>
-        <v>3</v>
+      <c r="A11" s="55">
+        <v>5</v>
+      </c>
+      <c r="B11" s="32" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="C11" s="33" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E11" s="35" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F11" s="36" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G11" s="36" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="52">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="33">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="D13" s="34">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="35">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="36">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="36">
-        <f>$G$1</f>
-        <v>6</v>
+      <c r="A13" s="55">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C13" s="33" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="D13" s="34" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E13" s="35" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F13" s="36" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="G13" s="36" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>21</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="52">
-        <v>7</v>
-      </c>
-      <c r="B15" s="32">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="33">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="D15" s="34">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="35">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F15" s="36">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="36">
-        <f>$F$1</f>
-        <v>5</v>
+      <c r="A15" s="55">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="C15" s="33" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="D15" s="34" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="E15" s="35" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F15" s="36" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G15" s="36" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="5">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="52">
-        <v>8</v>
-      </c>
-      <c r="B17" s="32">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="33">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="34">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="35">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F17" s="36">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="36">
-        <f>$G$1</f>
-        <v>6</v>
+      <c r="A17" s="55">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C17" s="33" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="D17" s="34" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E17" s="35" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="F17" s="36" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="G17" s="36" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>21</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="52">
-        <v>9</v>
-      </c>
-      <c r="B19" s="32">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="C19" s="33">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D19" s="34">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="35">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F19" s="36">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="36">
-        <f>$E$1</f>
-        <v>4</v>
+      <c r="A19" s="55">
+        <v>9</v>
+      </c>
+      <c r="B19" s="32" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="C19" s="33" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D19" s="34" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E19" s="35" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F19" s="36" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G19" s="36" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>21</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
-      <c r="B21" s="32">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="33">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="D21" s="34">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="35">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F21" s="36">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="36">
-        <f>$F$1</f>
-        <v>5</v>
+      <c r="B21" s="32" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C21" s="33" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="D21" s="34" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E21" s="35" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F21" s="36" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="G21" s="36" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="5">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
-      <c r="B23" s="32">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="C23" s="33">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D23" s="34">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="35">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F23" s="36">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G23" s="36">
-        <f>$G$1</f>
-        <v>6</v>
+      <c r="B23" s="32" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="C23" s="33" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="D23" s="34" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E23" s="35" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="F23" s="36" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G23" s="36" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="5">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>16</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
-      <c r="B25" s="32">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="33">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D25" s="34">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="35">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="36">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="36">
-        <f>$E$1</f>
-        <v>4</v>
+      <c r="B25" s="32" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="C25" s="33" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D25" s="34" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="E25" s="35" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F25" s="36" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G25" s="36" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="5">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>21</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
-      <c r="B27" s="32">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="33">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="D27" s="34">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="35">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F27" s="36">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="G27" s="36">
-        <f>$G$1</f>
-        <v>6</v>
+      <c r="B27" s="32" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C27" s="33" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="D27" s="34" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="E27" s="35" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="F27" s="36" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="G27" s="36" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="5">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>13</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
-      <c r="B29" s="32">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="C29" s="33">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D29" s="34">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="35">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="36">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="G29" s="36">
-        <f>$E$1</f>
-        <v>4</v>
+      <c r="B29" s="32" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="C29" s="33" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D29" s="34" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E29" s="35" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="F29" s="36" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="G29" s="36" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>4</v>
@@ -13139,7 +13194,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13149,37 +13204,37 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
-      <c r="B31" s="32">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="33">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="D31" s="34">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="35">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F31" s="36">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="36">
-        <f>$C$1</f>
-        <v>2</v>
+      <c r="B31" s="32" t="str">
+        <f>$D$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="C31" s="33" t="str">
+        <f>$E$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="D31" s="34" t="str">
+        <f>$F$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="E31" s="35" t="str">
+        <f>$G$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F31" s="36" t="str">
+        <f>$B$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G31" s="36" t="str">
+        <f>$C$1</f>
+        <v>Гоша</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13190,14 +13245,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -13208,6 +13255,14 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13260,14 +13315,14 @@
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -13276,7 +13331,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -13310,7 +13365,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -13321,7 +13376,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -13355,7 +13410,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -13366,7 +13421,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -13400,7 +13455,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -13411,7 +13466,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -13445,7 +13500,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -13456,7 +13511,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -13490,7 +13545,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -13501,7 +13556,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -13535,7 +13590,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -13546,7 +13601,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -13580,7 +13635,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -13591,7 +13646,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -13625,7 +13680,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -13636,7 +13691,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -13670,7 +13725,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -13681,7 +13736,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -13715,7 +13770,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -13726,7 +13781,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -13760,7 +13815,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -13771,7 +13826,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -13805,7 +13860,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -13816,7 +13871,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -13850,7 +13905,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -13861,7 +13916,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -13895,7 +13950,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13906,7 +13961,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -13940,7 +13995,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13952,11 +14007,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -13970,6 +14020,11 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -14025,14 +14080,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14044,7 +14099,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -14082,7 +14137,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -14094,7 +14149,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -14132,7 +14187,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -14144,7 +14199,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -14182,7 +14237,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -14194,7 +14249,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -14232,7 +14287,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -14244,7 +14299,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -14282,7 +14337,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -14294,7 +14349,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -14332,7 +14387,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -14344,7 +14399,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -14382,7 +14437,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -14394,7 +14449,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -14432,7 +14487,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -14444,7 +14499,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -14482,7 +14537,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -14494,7 +14549,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -14532,7 +14587,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -14544,7 +14599,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -14582,7 +14637,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -14594,7 +14649,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -14632,7 +14687,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -14644,7 +14699,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -14682,7 +14737,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -14694,7 +14749,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -14732,7 +14787,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -14744,7 +14799,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -14782,7 +14837,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -14795,6 +14850,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -14807,13 +14869,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14873,14 +14928,14 @@
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14895,7 +14950,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -14937,7 +14992,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -14950,7 +15005,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -14992,7 +15047,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15005,7 +15060,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15047,7 +15102,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -15060,7 +15115,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -15102,7 +15157,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -15115,7 +15170,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -15157,7 +15212,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -15170,7 +15225,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -15212,7 +15267,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -15225,7 +15280,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -15267,7 +15322,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -15280,7 +15335,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -15322,7 +15377,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -15335,7 +15390,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -15377,7 +15432,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -15390,7 +15445,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -15432,7 +15487,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -15445,7 +15500,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -15487,7 +15542,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -15500,7 +15555,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -15542,7 +15597,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -15555,7 +15610,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -15597,7 +15652,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -15610,7 +15665,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -15652,7 +15707,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -15665,7 +15720,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -15707,7 +15762,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -15721,6 +15776,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -15732,14 +15795,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15802,14 +15857,14 @@
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -15825,7 +15880,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -15871,7 +15926,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -15885,7 +15940,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -15931,7 +15986,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15945,7 +16000,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15991,7 +16046,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -16005,7 +16060,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -16051,7 +16106,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -16065,7 +16120,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -16111,7 +16166,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -16125,7 +16180,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -16171,7 +16226,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -16185,7 +16240,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -16231,7 +16286,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -16245,7 +16300,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -16291,7 +16346,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -16305,7 +16360,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -16351,7 +16406,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -16365,7 +16420,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -16411,7 +16466,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -16425,7 +16480,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -16471,7 +16526,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -16485,7 +16540,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -16531,7 +16586,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -16545,7 +16600,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -16591,7 +16646,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -16605,7 +16660,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -16651,7 +16706,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -16665,7 +16720,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -16711,7 +16766,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -16726,6 +16781,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
@@ -16738,14 +16801,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16811,14 +16866,14 @@
     </row>
     <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -16835,7 +16890,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -16885,7 +16940,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -16900,7 +16955,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -16950,7 +17005,7 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -16965,7 +17020,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -17015,7 +17070,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -17030,7 +17085,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -17080,7 +17135,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -17095,7 +17150,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -17145,7 +17200,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -17160,7 +17215,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -17210,7 +17265,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -17225,7 +17280,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -17275,7 +17330,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -17290,7 +17345,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -17340,7 +17395,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -17355,7 +17410,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -17405,7 +17460,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -17420,7 +17475,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -17470,7 +17525,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -17485,7 +17540,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -17535,7 +17590,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -17550,7 +17605,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -17600,7 +17655,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -17615,7 +17670,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -17665,7 +17720,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -17680,7 +17735,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -17730,7 +17785,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -17745,7 +17800,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -17795,7 +17850,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -17811,18 +17866,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -17831,6 +17879,13 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -17899,14 +17954,14 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -17915,18 +17970,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -17980,7 +18035,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -17996,7 +18051,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -18050,7 +18105,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -18066,7 +18121,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -18120,7 +18175,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -18136,7 +18191,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -18190,7 +18245,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -18206,7 +18261,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -18260,7 +18315,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -18276,7 +18331,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -18330,7 +18385,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -18346,7 +18401,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -18400,7 +18455,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -18416,7 +18471,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -18470,7 +18525,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -18486,7 +18541,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -18540,7 +18595,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -18556,7 +18611,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -18610,7 +18665,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -18626,7 +18681,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -18680,7 +18735,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -18696,7 +18751,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -18750,7 +18805,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -18766,7 +18821,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -18820,7 +18875,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -18836,7 +18891,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -18890,7 +18945,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -18906,7 +18961,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -18960,7 +19015,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -18977,6 +19032,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -18989,15 +19053,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -19070,14 +19125,14 @@
     </row>
     <row r="2" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -19086,21 +19141,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54"/>
       <c r="N2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -19158,7 +19213,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -19175,7 +19230,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -19233,7 +19288,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -19250,7 +19305,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="52">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -19308,7 +19363,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -19325,7 +19380,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="52">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -19383,7 +19438,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -19400,7 +19455,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -19458,7 +19513,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -19475,7 +19530,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -19533,7 +19588,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -19550,7 +19605,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="52">
+      <c r="A15" s="55">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -19608,7 +19663,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -19625,7 +19680,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="52">
+      <c r="A17" s="55">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -19683,7 +19738,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -19700,7 +19755,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="52">
+      <c r="A19" s="55">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -19758,7 +19813,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -19775,7 +19830,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -19833,7 +19888,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -19850,7 +19905,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -19908,7 +19963,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -19925,7 +19980,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="52">
+      <c r="A25" s="55">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -19983,7 +20038,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -20000,7 +20055,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="52">
+      <c r="A27" s="55">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -20058,7 +20113,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -20075,7 +20130,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="52">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -20133,7 +20188,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="53"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -20150,7 +20205,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="52">
+      <c r="A31" s="55">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -20208,7 +20263,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -20226,17 +20281,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -20247,6 +20291,17 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="13">
   <si>
     <t>Левая площадка</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Коля</t>
+  </si>
+  <si>
+    <t>Дима С</t>
+  </si>
+  <si>
+    <t>Ира</t>
   </si>
 </sst>
 </file>
@@ -567,6 +573,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,12 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,21 +967,21 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32">
@@ -1001,7 +1007,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1010,7 +1016,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32">
@@ -1036,7 +1042,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1045,7 +1051,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32">
@@ -1071,7 +1077,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1080,7 +1086,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32">
@@ -1106,7 +1112,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1115,7 +1121,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32">
@@ -1141,7 +1147,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -1150,7 +1156,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32">
@@ -1176,7 +1182,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -1185,7 +1191,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32">
@@ -1211,7 +1217,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -1220,7 +1226,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32">
@@ -1246,7 +1252,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1255,7 +1261,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32">
@@ -1281,7 +1287,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1290,7 +1296,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32">
@@ -1316,7 +1322,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1325,7 +1331,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32">
@@ -1351,7 +1357,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1360,7 +1366,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32">
@@ -1386,7 +1392,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1395,7 +1401,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32">
@@ -1421,7 +1427,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1430,7 +1436,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32">
@@ -1456,7 +1462,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1465,7 +1471,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32">
@@ -1494,7 +1500,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -1504,6 +1510,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -1516,11 +1527,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1596,14 +1602,14 @@
     </row>
     <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -1612,22 +1618,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
+      <c r="O2" s="54"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -1689,7 +1695,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1707,7 +1713,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -1769,7 +1775,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1787,7 +1793,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -1849,7 +1855,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1867,7 +1873,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -1929,7 +1935,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1947,7 +1953,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -2009,7 +2015,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -2027,7 +2033,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -2089,7 +2095,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -2107,7 +2113,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -2169,7 +2175,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -2187,7 +2193,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -2249,7 +2255,7 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -2267,7 +2273,7 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -2329,7 +2335,7 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -2347,7 +2353,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -2409,7 +2415,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -2427,7 +2433,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -2489,7 +2495,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -2507,7 +2513,7 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -2569,7 +2575,7 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -2587,7 +2593,7 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -2649,7 +2655,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -2667,7 +2673,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -2729,7 +2735,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -2747,7 +2753,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -2809,7 +2815,7 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -2828,6 +2834,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -2838,18 +2856,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2928,14 +2934,14 @@
     </row>
     <row r="2" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -2944,23 +2950,23 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -3026,7 +3032,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -3045,7 +3051,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -3111,7 +3117,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3130,7 +3136,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -3196,7 +3202,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -3215,7 +3221,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -3281,7 +3287,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3300,7 +3306,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -3366,7 +3372,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -3385,7 +3391,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -3451,7 +3457,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -3470,7 +3476,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -3536,7 +3542,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -3555,7 +3561,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -3621,7 +3627,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -3640,7 +3646,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -3706,7 +3712,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -3725,7 +3731,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -3791,7 +3797,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -3810,7 +3816,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -3876,7 +3882,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -3895,7 +3901,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -3961,7 +3967,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -3980,7 +3986,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -4046,7 +4052,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4065,7 +4071,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -4131,7 +4137,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -4150,7 +4156,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -4216,7 +4222,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -4236,6 +4242,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -4248,16 +4264,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4339,14 +4345,14 @@
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4355,14 +4361,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +4380,7 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -4444,7 +4450,7 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -4464,7 +4470,7 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -4534,7 +4540,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -4554,7 +4560,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -4624,7 +4630,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -4644,7 +4650,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -4714,7 +4720,7 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -4734,7 +4740,7 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -4804,7 +4810,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -4824,7 +4830,7 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -4894,7 +4900,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -4914,7 +4920,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -4984,7 +4990,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -5004,7 +5010,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -5074,7 +5080,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -5094,7 +5100,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -5164,7 +5170,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -5184,7 +5190,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -5254,7 +5260,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -5274,7 +5280,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -5344,7 +5350,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -5364,7 +5370,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -5434,7 +5440,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -5454,7 +5460,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -5524,7 +5530,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -5544,7 +5550,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -5614,7 +5620,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -5634,7 +5640,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -5704,7 +5710,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -5725,6 +5731,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A18"/>
@@ -5733,21 +5754,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5833,14 +5839,14 @@
     </row>
     <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5849,14 +5855,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5877,7 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -5945,7 +5951,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -5966,7 +5972,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -6040,7 +6046,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -6061,7 +6067,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -6135,7 +6141,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -6156,7 +6162,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -6230,7 +6236,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -6251,7 +6257,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -6325,7 +6331,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -6346,7 +6352,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -6420,7 +6426,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -6441,7 +6447,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -6515,7 +6521,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -6536,7 +6542,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -6610,7 +6616,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -6631,7 +6637,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -6705,7 +6711,7 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -6726,7 +6732,7 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -6800,7 +6806,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -6821,7 +6827,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -6895,7 +6901,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -6916,7 +6922,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -6990,7 +6996,7 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -7011,7 +7017,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -7085,7 +7091,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -7106,7 +7112,7 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -7180,7 +7186,7 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -7201,7 +7207,7 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -7275,7 +7281,7 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -7297,6 +7303,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -7309,17 +7326,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7408,14 +7414,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7424,14 +7430,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7440,16 +7446,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="52" t="s">
+      <c r="R2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -7527,7 +7533,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -7549,7 +7555,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -7627,7 +7633,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -7649,7 +7655,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -7727,7 +7733,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -7749,7 +7755,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -7827,7 +7833,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -7849,7 +7855,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -7927,7 +7933,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -7949,7 +7955,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -8027,7 +8033,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -8049,7 +8055,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -8127,7 +8133,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -8149,7 +8155,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -8227,7 +8233,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -8249,7 +8255,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -8327,7 +8333,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -8349,7 +8355,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -8427,7 +8433,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -8449,7 +8455,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -8527,7 +8533,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -8549,7 +8555,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -8627,7 +8633,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -8649,7 +8655,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -8727,7 +8733,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -8749,7 +8755,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -8827,7 +8833,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -8849,7 +8855,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -8927,7 +8933,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -8953,6 +8959,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -8969,14 +8983,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -9068,14 +9074,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9084,14 +9090,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9114,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -9190,7 +9196,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -9213,7 +9219,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -9295,7 +9301,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -9318,7 +9324,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -9400,7 +9406,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -9423,7 +9429,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -9505,7 +9511,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -9528,7 +9534,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -9610,7 +9616,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -9633,7 +9639,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -9715,7 +9721,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -9738,7 +9744,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -9820,7 +9826,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -9843,7 +9849,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -9925,7 +9931,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -9948,7 +9954,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -10030,7 +10036,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -10053,7 +10059,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -10135,7 +10141,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -10158,7 +10164,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -10240,7 +10246,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -10263,7 +10269,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -10345,7 +10351,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -10368,7 +10374,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -10450,7 +10456,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -10473,7 +10479,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -10555,7 +10561,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -10578,7 +10584,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -10660,7 +10666,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -10684,6 +10690,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -10699,15 +10714,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10802,14 +10808,14 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10818,14 +10824,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="58" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10851,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -10931,7 +10937,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -10955,7 +10961,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -11041,7 +11047,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -11065,7 +11071,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -11151,7 +11157,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -11175,7 +11181,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -11261,7 +11267,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -11285,7 +11291,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -11371,7 +11377,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -11395,7 +11401,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -11481,7 +11487,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -11505,7 +11511,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -11591,7 +11597,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -11615,7 +11621,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -11701,7 +11707,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -11725,7 +11731,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -11811,7 +11817,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -11835,7 +11841,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -11921,7 +11927,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -11945,7 +11951,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -12031,7 +12037,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -12055,7 +12061,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -12141,7 +12147,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -12165,7 +12171,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -12251,7 +12257,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -12275,7 +12281,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -12361,7 +12367,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -12385,7 +12391,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -12471,7 +12477,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -12496,6 +12502,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -12512,15 +12527,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -12534,8 +12540,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -12574,14 +12580,14 @@
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -12589,7 +12595,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="str">
@@ -12619,7 +12625,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>10</v>
@@ -12633,7 +12639,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32" t="str">
@@ -12663,7 +12669,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -12677,7 +12683,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32" t="str">
@@ -12707,7 +12713,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>15</v>
@@ -12721,7 +12727,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32" t="str">
@@ -12751,7 +12757,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>13</v>
@@ -12765,7 +12771,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32" t="str">
@@ -12795,7 +12801,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>21</v>
@@ -12809,7 +12815,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32" t="str">
@@ -12839,7 +12845,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>15</v>
@@ -12853,7 +12859,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32" t="str">
@@ -12883,7 +12889,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -12897,7 +12903,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32" t="str">
@@ -12927,7 +12933,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>12</v>
@@ -12941,7 +12947,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32" t="str">
@@ -12971,7 +12977,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>12</v>
@@ -12985,7 +12991,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="str">
@@ -13015,7 +13021,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>21</v>
@@ -13029,7 +13035,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32" t="str">
@@ -13059,7 +13065,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>21</v>
@@ -13073,7 +13079,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="str">
@@ -13103,7 +13109,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5">
         <v>14</v>
@@ -13117,7 +13123,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32" t="str">
@@ -13147,7 +13153,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
         <v>21</v>
@@ -13161,7 +13167,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32" t="str">
@@ -13194,7 +13200,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13204,7 +13210,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32" t="str">
@@ -13234,7 +13240,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13245,6 +13251,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -13255,14 +13269,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13315,14 +13321,14 @@
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -13331,7 +13337,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -13365,7 +13371,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -13376,7 +13382,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -13410,7 +13416,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -13421,7 +13427,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -13455,7 +13461,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -13466,7 +13472,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -13500,7 +13506,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -13511,7 +13517,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -13545,7 +13551,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -13556,7 +13562,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -13590,7 +13596,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -13601,7 +13607,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -13635,7 +13641,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -13646,7 +13652,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -13680,7 +13686,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -13691,7 +13697,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -13725,7 +13731,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -13736,7 +13742,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -13770,7 +13776,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -13781,7 +13787,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -13815,7 +13821,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -13826,7 +13832,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -13860,7 +13866,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -13871,7 +13877,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -13905,7 +13911,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -13916,7 +13922,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -13950,7 +13956,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13961,7 +13967,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -13995,7 +14001,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -14007,6 +14013,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -14022,9 +14031,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -14038,8 +14044,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -14053,41 +14059,41 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="12">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15">
-        <v>5</v>
-      </c>
-      <c r="G1" s="16">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18">
-        <v>8</v>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14099,95 +14105,103 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C3" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="23">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="24">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="25">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="G3" s="26">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="H3" s="25">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="27">
-        <f>$G$1</f>
-        <v>6</v>
+        <v>Ира</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="F3" s="25" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="G3" s="26" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="H3" s="25" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="I3" s="27" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="22">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="23">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="24">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="F5" s="25">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="A5" s="52">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="G5" s="26" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="H5" s="25">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="27">
-        <f>$G$1</f>
-        <v>6</v>
+        <v>Ира</v>
+      </c>
+      <c r="H5" s="25" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="I5" s="27" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -14199,45 +14213,45 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="23">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="24">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F7" s="25">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="26">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="H7" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="A7" s="52">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="F7" s="25" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="G7" s="26" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="H7" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="I7" s="27" t="str">
         <f>$I$1</f>
-        <v>8</v>
+        <v>Ира</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -14249,45 +14263,45 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="A9" s="52">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="C9" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="23">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="24">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F9" s="25">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="26">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="H9" s="25">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="I9" s="27">
-        <f>$H$1</f>
-        <v>7</v>
+        <v>Ира</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F9" s="25" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="H9" s="25" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="I9" s="27" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -14299,45 +14313,45 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="A11" s="52">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="C11" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="23">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="24">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="26">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="H11" s="25">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="27">
-        <f>$F$1</f>
-        <v>5</v>
+        <v>Ира</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="H11" s="25" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -14349,45 +14363,45 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
-        <v>6</v>
-      </c>
-      <c r="B13" s="21">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="A13" s="52">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="C13" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="23">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="24">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F13" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="26">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="H13" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="I13" s="27">
-        <f>$F$1</f>
-        <v>5</v>
+        <v>Ира</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G13" s="26" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="H13" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="I13" s="27" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -14399,45 +14413,45 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="22">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="D15" s="23">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="A15" s="52">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="E15" s="24" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="F15" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="26">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="I15" s="27">
-        <f>$E$1</f>
-        <v>4</v>
+        <v>Ира</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="H15" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="I15" s="27" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -14449,45 +14463,45 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="22">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="23">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="24">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F17" s="25">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="26">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="H17" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="27">
+      <c r="A17" s="52">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F17" s="25" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="H17" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="I17" s="27" t="str">
         <f>$I$1</f>
-        <v>8</v>
+        <v>Ира</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -14499,45 +14513,45 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
-        <v>9</v>
-      </c>
-      <c r="B19" s="21">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="C19" s="22">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D19" s="23">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="F19" s="25">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="26">
+      <c r="A19" s="52">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="F19" s="25" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="G19" s="26" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="H19" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="27">
-        <f>$D$1</f>
-        <v>3</v>
+        <v>Ира</v>
+      </c>
+      <c r="H19" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="I19" s="27" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -14549,45 +14563,45 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
-      <c r="B21" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C21" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D21" s="23">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="24">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="F21" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="26">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="H21" s="25">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="I21" s="27">
-        <f>$H$1</f>
-        <v>7</v>
+        <v>Ира</v>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E21" s="24" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="F21" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G21" s="26" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="H21" s="25" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="I21" s="27" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -14599,45 +14613,45 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
-      <c r="B23" s="21">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="22">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D23" s="23">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="B23" s="21" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="D23" s="23" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="E23" s="24" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="F23" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="26">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="H23" s="25">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="27">
-        <f>$C$1</f>
-        <v>2</v>
+        <v>Ира</v>
+      </c>
+      <c r="F23" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="G23" s="26" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="H23" s="25" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="I23" s="27" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -14649,45 +14663,45 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
-      <c r="B25" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="22">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="D25" s="23">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="B25" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="D25" s="23" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="E25" s="24" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="F25" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="26">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="H25" s="25">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="I25" s="27">
-        <f>$H$1</f>
-        <v>7</v>
+        <v>Ира</v>
+      </c>
+      <c r="F25" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="G25" s="26" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="H25" s="25" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="I25" s="27" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
       </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -14699,45 +14713,45 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
-      <c r="B27" s="21">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="B27" s="21" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="C27" s="22" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="D27" s="23">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="24">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="F27" s="25">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="26">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="H27" s="25">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="I27" s="27">
-        <f>$G$1</f>
-        <v>6</v>
+        <v>Ира</v>
+      </c>
+      <c r="D27" s="23" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E27" s="24" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="G27" s="26" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="H27" s="25" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="I27" s="27" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -14749,45 +14763,45 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
-      <c r="B29" s="21">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C29" s="22">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="D29" s="23">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="24">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F29" s="25">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="G29" s="26">
+      <c r="B29" s="21" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="E29" s="24" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F29" s="25" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="G29" s="26" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="H29" s="25">
-        <f>$D$1</f>
-        <v>3</v>
-      </c>
-      <c r="I29" s="27">
-        <f>$E$1</f>
-        <v>4</v>
+        <v>Ира</v>
+      </c>
+      <c r="H29" s="25" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
+      </c>
+      <c r="I29" s="27" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
       </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -14799,45 +14813,45 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
-      <c r="B31" s="21">
-        <f>$G$1</f>
-        <v>6</v>
-      </c>
-      <c r="C31" s="22">
-        <f>$H$1</f>
-        <v>7</v>
-      </c>
-      <c r="D31" s="23">
-        <f>$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <f>$F$1</f>
-        <v>5</v>
-      </c>
-      <c r="F31" s="25">
-        <f>$E$1</f>
-        <v>4</v>
-      </c>
-      <c r="G31" s="26">
+      <c r="B31" s="21" t="str">
+        <f>$G$1</f>
+        <v>Женя</v>
+      </c>
+      <c r="C31" s="22" t="str">
+        <f>$H$1</f>
+        <v>Дима С</v>
+      </c>
+      <c r="D31" s="23" t="str">
+        <f>$B$1</f>
+        <v>Дима Н</v>
+      </c>
+      <c r="E31" s="24" t="str">
+        <f>$F$1</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="F31" s="25" t="str">
+        <f>$E$1</f>
+        <v>Коля</v>
+      </c>
+      <c r="G31" s="26" t="str">
         <f>$I$1</f>
-        <v>8</v>
-      </c>
-      <c r="H31" s="25">
-        <f>$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="I31" s="27">
-        <f>$D$1</f>
-        <v>3</v>
+        <v>Ира</v>
+      </c>
+      <c r="H31" s="25" t="str">
+        <f>$C$1</f>
+        <v>Макс</v>
+      </c>
+      <c r="I31" s="27" t="str">
+        <f>$D$1</f>
+        <v>Гоша</v>
       </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -14850,13 +14864,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -14869,6 +14876,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14928,14 +14942,14 @@
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -14950,7 +14964,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -14992,7 +15006,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -15005,7 +15019,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -15047,7 +15061,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15060,7 +15074,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15102,7 +15116,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -15115,7 +15129,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -15157,7 +15171,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -15170,7 +15184,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -15212,7 +15226,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -15225,7 +15239,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -15267,7 +15281,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -15280,7 +15294,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -15322,7 +15336,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -15335,7 +15349,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -15377,7 +15391,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -15390,7 +15404,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -15432,7 +15446,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -15445,7 +15459,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -15487,7 +15501,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -15500,7 +15514,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -15542,7 +15556,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -15555,7 +15569,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -15597,7 +15611,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -15610,7 +15624,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -15652,7 +15666,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -15665,7 +15679,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -15707,7 +15721,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -15720,7 +15734,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -15762,7 +15776,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -15776,14 +15790,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -15795,6 +15801,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15857,14 +15871,14 @@
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -15880,7 +15894,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -15926,7 +15940,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -15940,7 +15954,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -15986,7 +16000,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -16000,7 +16014,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -16046,7 +16060,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -16060,7 +16074,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -16106,7 +16120,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -16120,7 +16134,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -16166,7 +16180,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -16180,7 +16194,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -16226,7 +16240,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -16240,7 +16254,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -16286,7 +16300,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -16300,7 +16314,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -16346,7 +16360,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -16360,7 +16374,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -16406,7 +16420,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -16420,7 +16434,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -16466,7 +16480,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -16480,7 +16494,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -16526,7 +16540,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -16540,7 +16554,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -16586,7 +16600,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -16600,7 +16614,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -16646,7 +16660,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -16660,7 +16674,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -16706,7 +16720,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -16720,7 +16734,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -16766,7 +16780,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -16781,14 +16795,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
@@ -16801,6 +16807,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16866,14 +16880,14 @@
     </row>
     <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -16890,7 +16904,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -16940,7 +16954,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -16955,7 +16969,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -17005,7 +17019,7 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -17020,7 +17034,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -17070,7 +17084,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -17085,7 +17099,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -17135,7 +17149,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -17150,7 +17164,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -17200,7 +17214,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -17215,7 +17229,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -17265,7 +17279,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -17280,7 +17294,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -17330,7 +17344,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -17345,7 +17359,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -17395,7 +17409,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -17410,7 +17424,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -17460,7 +17474,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -17475,7 +17489,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -17525,7 +17539,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -17540,7 +17554,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -17590,7 +17604,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -17605,7 +17619,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -17655,7 +17669,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -17670,7 +17684,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -17720,7 +17734,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -17735,7 +17749,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -17785,7 +17799,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -17800,7 +17814,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -17850,7 +17864,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -17866,6 +17880,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -17881,11 +17900,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -17954,14 +17968,14 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -17970,18 +17984,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -18035,7 +18049,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -18051,7 +18065,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -18105,7 +18119,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -18121,7 +18135,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -18175,7 +18189,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -18191,7 +18205,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -18245,7 +18259,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -18261,7 +18275,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -18315,7 +18329,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -18331,7 +18345,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -18385,7 +18399,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -18401,7 +18415,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -18455,7 +18469,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -18471,7 +18485,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -18525,7 +18539,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -18541,7 +18555,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -18595,7 +18609,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -18611,7 +18625,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -18665,7 +18679,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -18681,7 +18695,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -18735,7 +18749,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -18751,7 +18765,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -18805,7 +18819,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -18821,7 +18835,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -18875,7 +18889,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -18891,7 +18905,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -18945,7 +18959,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -18961,7 +18975,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -19015,7 +19029,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -19032,15 +19046,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -19053,6 +19058,15 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -19125,14 +19139,14 @@
     </row>
     <row r="2" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>0</v>
       </c>
@@ -19141,21 +19155,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -19213,7 +19227,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -19230,7 +19244,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -19288,7 +19302,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -19305,7 +19319,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -19363,7 +19377,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -19380,7 +19394,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -19438,7 +19452,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -19455,7 +19469,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -19513,7 +19527,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -19530,7 +19544,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -19588,7 +19602,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -19605,7 +19619,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -19663,7 +19677,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -19680,7 +19694,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -19738,7 +19752,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -19755,7 +19769,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -19813,7 +19827,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -19830,7 +19844,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -19888,7 +19902,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -19905,7 +19919,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -19963,7 +19977,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -19980,7 +19994,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -20038,7 +20052,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -20055,7 +20069,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -20113,7 +20127,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -20130,7 +20144,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -20188,7 +20202,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -20205,7 +20219,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -20263,7 +20277,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -20281,6 +20295,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -20291,17 +20316,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -12540,8 +12540,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -14045,7 +14045,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="24.01.2023" sheetId="27" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="30">
   <si>
     <t>Левая площадка</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Вася</t>
-  </si>
-  <si>
-    <t>Женис</t>
   </si>
   <si>
     <t>Ольга</t>
@@ -643,6 +640,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,15 +655,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,6 +662,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,7 +997,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1042,26 +1039,26 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -1092,7 +1089,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>18</v>
@@ -1112,7 +1109,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1142,7 +1139,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -1162,7 +1159,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1192,7 +1189,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>18</v>
@@ -1212,7 +1209,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -1242,7 +1239,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>21</v>
@@ -1262,7 +1259,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -1292,7 +1289,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>11</v>
@@ -1312,7 +1309,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1342,7 +1339,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>21</v>
@@ -1362,7 +1359,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1392,7 +1389,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>16</v>
@@ -1412,7 +1409,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1442,7 +1439,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>12</v>
@@ -1462,7 +1459,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -1492,7 +1489,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>21</v>
@@ -1512,7 +1509,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -1542,7 +1539,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>16</v>
@@ -1562,7 +1559,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1596,7 +1593,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>18</v>
@@ -1612,7 +1609,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="str">
@@ -1650,7 +1647,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1662,7 +1659,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21" t="str">
@@ -1700,7 +1697,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1712,7 +1709,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21" t="str">
@@ -1750,7 +1747,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1762,7 +1759,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21" t="str">
@@ -1800,7 +1797,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -1813,6 +1810,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -1820,18 +1829,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1885,22 +1882,22 @@
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="57"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="str">
@@ -1930,7 +1927,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>10</v>
@@ -1944,7 +1941,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32" t="str">
@@ -1974,7 +1971,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -1988,7 +1985,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32" t="str">
@@ -2018,7 +2015,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>15</v>
@@ -2032,7 +2029,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32" t="str">
@@ -2062,7 +2059,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>13</v>
@@ -2076,7 +2073,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32" t="str">
@@ -2106,7 +2103,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>21</v>
@@ -2120,7 +2117,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32" t="str">
@@ -2150,7 +2147,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>15</v>
@@ -2164,7 +2161,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32" t="str">
@@ -2194,7 +2191,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -2208,7 +2205,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32" t="str">
@@ -2238,7 +2235,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>12</v>
@@ -2252,7 +2249,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32" t="str">
@@ -2282,7 +2279,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>12</v>
@@ -2296,7 +2293,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="str">
@@ -2326,7 +2323,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>21</v>
@@ -2340,7 +2337,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32" t="str">
@@ -2370,7 +2367,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>21</v>
@@ -2384,7 +2381,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="str">
@@ -2414,7 +2411,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5">
         <v>14</v>
@@ -2428,7 +2425,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32" t="str">
@@ -2458,7 +2455,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
         <v>21</v>
@@ -2472,7 +2469,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32" t="str">
@@ -2505,7 +2502,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -2515,7 +2512,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32" t="str">
@@ -2545,7 +2542,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -2556,6 +2553,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -2566,14 +2571,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2626,23 +2623,23 @@
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -2676,7 +2673,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -2687,7 +2684,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -2721,7 +2718,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -2732,7 +2729,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -2766,7 +2763,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -2777,7 +2774,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -2811,7 +2808,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -2822,7 +2819,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -2856,7 +2853,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -2867,7 +2864,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -2901,7 +2898,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -2912,7 +2909,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -2946,7 +2943,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -2957,7 +2954,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -2991,7 +2988,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -3002,7 +2999,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -3036,7 +3033,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -3047,7 +3044,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -3081,7 +3078,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -3092,7 +3089,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -3126,7 +3123,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -3137,7 +3134,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -3171,7 +3168,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -3182,7 +3179,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -3216,7 +3213,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -3227,7 +3224,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -3261,7 +3258,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -3272,7 +3269,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -3306,7 +3303,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -3318,11 +3315,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -3336,6 +3328,11 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -3391,26 +3388,26 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="str">
@@ -3448,7 +3445,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>12</v>
@@ -3468,7 +3465,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="str">
@@ -3506,7 +3503,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3518,7 +3515,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="str">
@@ -3556,7 +3553,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -3568,7 +3565,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="str">
@@ -3606,7 +3603,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3618,7 +3615,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="str">
@@ -3656,7 +3653,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -3668,7 +3665,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="str">
@@ -3706,7 +3703,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -3718,7 +3715,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="str">
@@ -3756,7 +3753,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -3768,7 +3765,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="str">
@@ -3806,7 +3803,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -3818,7 +3815,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="str">
@@ -3856,7 +3853,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -3868,7 +3865,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="str">
@@ -3906,7 +3903,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -3918,7 +3915,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="str">
@@ -3956,7 +3953,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -3968,7 +3965,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="str">
@@ -4006,7 +4003,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -4018,7 +4015,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21" t="str">
@@ -4056,7 +4053,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4068,7 +4065,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21" t="str">
@@ -4106,7 +4103,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -4118,7 +4115,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21" t="str">
@@ -4156,7 +4153,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -4169,13 +4166,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -4188,6 +4178,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4247,29 +4244,29 @@
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="J2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -4311,7 +4308,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -4324,7 +4321,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -4366,7 +4363,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -4379,7 +4376,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -4421,7 +4418,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -4434,7 +4431,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -4476,7 +4473,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -4489,7 +4486,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -4531,7 +4528,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -4544,7 +4541,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -4586,7 +4583,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -4599,7 +4596,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -4641,7 +4638,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -4654,7 +4651,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -4696,7 +4693,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -4709,7 +4706,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -4751,7 +4748,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -4764,7 +4761,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -4806,7 +4803,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -4819,7 +4816,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -4861,7 +4858,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -4874,7 +4871,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -4916,7 +4913,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -4929,7 +4926,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -4971,7 +4968,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4984,7 +4981,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -5026,7 +5023,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -5039,7 +5036,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -5081,7 +5078,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -5095,14 +5092,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -5114,6 +5103,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5176,22 +5173,22 @@
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="J2" s="61" t="s">
         <v>2</v>
       </c>
@@ -5199,7 +5196,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -5245,7 +5242,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -5259,7 +5256,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -5305,7 +5302,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -5319,7 +5316,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -5365,7 +5362,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -5379,7 +5376,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -5425,7 +5422,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -5439,7 +5436,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -5485,7 +5482,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -5499,7 +5496,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -5545,7 +5542,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -5559,7 +5556,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -5605,7 +5602,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -5619,7 +5616,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -5665,7 +5662,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -5679,7 +5676,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -5725,7 +5722,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -5739,7 +5736,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -5785,7 +5782,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -5799,7 +5796,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -5845,7 +5842,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -5859,7 +5856,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -5905,7 +5902,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -5919,7 +5916,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -5965,7 +5962,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -5979,7 +5976,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -6025,7 +6022,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -6039,7 +6036,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -6085,7 +6082,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -6100,14 +6097,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
@@ -6120,6 +6109,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6185,22 +6182,22 @@
     </row>
     <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="J2" s="61" t="s">
         <v>2</v>
       </c>
@@ -6209,7 +6206,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -6259,7 +6256,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -6274,7 +6271,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -6324,7 +6321,7 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -6339,7 +6336,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -6389,7 +6386,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -6404,7 +6401,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -6454,7 +6451,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -6469,7 +6466,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -6519,7 +6516,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -6534,7 +6531,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -6584,7 +6581,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -6599,7 +6596,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -6649,7 +6646,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -6664,7 +6661,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -6714,7 +6711,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -6729,7 +6726,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -6779,7 +6776,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -6794,7 +6791,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -6844,7 +6841,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -6859,7 +6856,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -6909,7 +6906,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -6924,7 +6921,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -6974,7 +6971,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -6989,7 +6986,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -7039,7 +7036,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -7054,7 +7051,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -7104,7 +7101,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -7119,7 +7116,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -7169,7 +7166,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -7185,6 +7182,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -7200,11 +7202,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7273,34 +7270,34 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -7354,7 +7351,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -7370,7 +7367,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -7424,7 +7421,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -7440,7 +7437,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -7494,7 +7491,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -7510,7 +7507,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -7564,7 +7561,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -7580,7 +7577,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -7634,7 +7631,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -7650,7 +7647,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -7704,7 +7701,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -7720,7 +7717,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -7774,7 +7771,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -7790,7 +7787,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -7844,7 +7841,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -7860,7 +7857,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -7914,7 +7911,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -7930,7 +7927,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -7984,7 +7981,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -8000,7 +7997,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -8054,7 +8051,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -8070,7 +8067,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -8124,7 +8121,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -8140,7 +8137,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -8194,7 +8191,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -8210,7 +8207,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -8264,7 +8261,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -8280,7 +8277,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -8334,7 +8331,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -8351,15 +8348,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -8372,6 +8360,15 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -8444,37 +8441,37 @@
     </row>
     <row r="2" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -8532,7 +8529,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -8549,7 +8546,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -8607,7 +8604,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -8624,7 +8621,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -8682,7 +8679,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -8699,7 +8696,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -8757,7 +8754,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -8774,7 +8771,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -8832,7 +8829,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -8849,7 +8846,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -8907,7 +8904,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -8924,7 +8921,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -8982,7 +8979,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -8999,7 +8996,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -9057,7 +9054,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -9074,7 +9071,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -9132,7 +9129,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -9149,7 +9146,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -9207,7 +9204,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -9224,7 +9221,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -9282,7 +9279,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -9299,7 +9296,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -9357,7 +9354,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -9374,7 +9371,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -9432,7 +9429,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -9449,7 +9446,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -9507,7 +9504,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -9524,7 +9521,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -9582,7 +9579,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -9600,6 +9597,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -9610,17 +9618,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -9696,38 +9693,38 @@
     </row>
     <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
+      <c r="O2" s="54"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -9789,7 +9786,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -9807,7 +9804,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -9869,7 +9866,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -9887,7 +9884,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -9949,7 +9946,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -9967,7 +9964,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -10029,7 +10026,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -10047,7 +10044,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -10109,7 +10106,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -10127,7 +10124,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -10189,7 +10186,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -10207,7 +10204,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -10269,7 +10266,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -10287,7 +10284,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -10349,7 +10346,7 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -10367,7 +10364,7 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -10429,7 +10426,7 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -10447,7 +10444,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -10509,7 +10506,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -10527,7 +10524,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -10589,7 +10586,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -10607,7 +10604,7 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -10669,7 +10666,7 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -10687,7 +10684,7 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -10749,7 +10746,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -10767,7 +10764,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -10829,7 +10826,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -10847,7 +10844,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -10909,7 +10906,7 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -10928,6 +10925,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -10938,18 +10947,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -11028,39 +11025,39 @@
     </row>
     <row r="2" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -11126,7 +11123,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -11145,7 +11142,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -11211,7 +11208,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -11230,7 +11227,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -11296,7 +11293,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -11315,7 +11312,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -11381,7 +11378,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -11400,7 +11397,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -11466,7 +11463,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -11485,7 +11482,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -11551,7 +11548,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -11570,7 +11567,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -11636,7 +11633,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -11655,7 +11652,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -11721,7 +11718,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -11740,7 +11737,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -11806,7 +11803,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -11825,7 +11822,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -11891,7 +11888,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -11910,7 +11907,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -11976,7 +11973,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -11995,7 +11992,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -12061,7 +12058,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -12080,7 +12077,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -12146,7 +12143,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -12165,7 +12162,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -12231,7 +12228,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -12250,7 +12247,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -12316,7 +12313,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -12336,6 +12333,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -12348,16 +12355,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -12371,8 +12368,8 @@
   </sheetPr>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -12426,34 +12423,34 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -12495,7 +12492,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>19</v>
@@ -12523,7 +12520,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -12560,12 +12557,12 @@
         <v>9</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -12593,7 +12590,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -12635,7 +12632,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>16</v>
@@ -12663,7 +12660,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -12705,7 +12702,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>12</v>
@@ -12733,7 +12730,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -12775,7 +12772,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>20</v>
@@ -12803,7 +12800,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -12845,7 +12842,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>21</v>
@@ -12873,7 +12870,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -12915,7 +12912,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -12943,7 +12940,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -12985,7 +12982,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>21</v>
@@ -13013,7 +13010,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -13055,7 +13052,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>15</v>
@@ -13083,7 +13080,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -13129,7 +13126,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -13153,7 +13150,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -13207,7 +13204,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -13223,7 +13220,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -13277,7 +13274,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -13293,7 +13290,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -13347,7 +13344,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -13363,7 +13360,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -13417,7 +13414,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -13433,7 +13430,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -13487,7 +13484,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -13504,6 +13501,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -13513,18 +13522,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13606,42 +13603,42 @@
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -13711,7 +13708,7 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -13731,7 +13728,7 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -13801,7 +13798,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -13821,7 +13818,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -13891,7 +13888,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -13911,7 +13908,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -13981,7 +13978,7 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -14001,7 +13998,7 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -14071,7 +14068,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -14091,7 +14088,7 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -14161,7 +14158,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -14181,7 +14178,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -14251,7 +14248,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -14271,7 +14268,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -14341,7 +14338,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -14361,7 +14358,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -14431,7 +14428,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -14451,7 +14448,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -14521,7 +14518,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -14541,7 +14538,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -14611,7 +14608,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -14631,7 +14628,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -14701,7 +14698,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -14721,7 +14718,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -14791,7 +14788,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -14811,7 +14808,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -14881,7 +14878,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -14901,7 +14898,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -14971,7 +14968,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -14992,6 +14989,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A18"/>
@@ -15000,21 +15012,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -15100,45 +15097,45 @@
     </row>
     <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
       <c r="R2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -15212,7 +15209,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -15233,7 +15230,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -15307,7 +15304,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -15328,7 +15325,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -15402,7 +15399,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -15423,7 +15420,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -15497,7 +15494,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -15518,7 +15515,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -15592,7 +15589,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -15613,7 +15610,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -15687,7 +15684,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -15708,7 +15705,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -15782,7 +15779,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -15803,7 +15800,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -15877,7 +15874,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -15898,7 +15895,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -15972,7 +15969,7 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -15993,7 +15990,7 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -16067,7 +16064,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -16088,7 +16085,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -16162,7 +16159,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -16183,7 +16180,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -16257,7 +16254,7 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -16278,7 +16275,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -16352,7 +16349,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -16373,7 +16370,7 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -16447,7 +16444,7 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -16468,7 +16465,7 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -16542,7 +16539,7 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -16564,6 +16561,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -16576,17 +16584,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -16675,48 +16672,48 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -16794,7 +16791,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -16816,7 +16813,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -16894,7 +16891,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -16916,7 +16913,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -16994,7 +16991,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -17016,7 +17013,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -17094,7 +17091,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -17116,7 +17113,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -17194,7 +17191,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -17216,7 +17213,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -17294,7 +17291,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -17316,7 +17313,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -17394,7 +17391,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -17416,7 +17413,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -17494,7 +17491,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -17516,7 +17513,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -17594,7 +17591,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -17616,7 +17613,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -17694,7 +17691,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -17716,7 +17713,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -17794,7 +17791,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -17816,7 +17813,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -17894,7 +17891,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -17916,7 +17913,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -17994,7 +17991,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -18016,7 +18013,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -18094,7 +18091,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -18116,7 +18113,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -18194,7 +18191,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -18220,6 +18217,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -18236,14 +18241,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18335,38 +18332,38 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
       <c r="R2" s="61" t="s">
         <v>2</v>
       </c>
@@ -18375,7 +18372,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -18457,7 +18454,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -18480,7 +18477,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -18562,7 +18559,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -18585,7 +18582,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -18667,7 +18664,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -18690,7 +18687,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -18772,7 +18769,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -18795,7 +18792,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -18877,7 +18874,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -18900,7 +18897,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -18982,7 +18979,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -19005,7 +19002,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -19087,7 +19084,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -19110,7 +19107,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -19192,7 +19189,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -19215,7 +19212,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -19297,7 +19294,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -19320,7 +19317,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -19402,7 +19399,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -19425,7 +19422,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -19507,7 +19504,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -19530,7 +19527,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -19612,7 +19609,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -19635,7 +19632,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -19717,7 +19714,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -19740,7 +19737,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -19822,7 +19819,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -19845,7 +19842,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -19927,7 +19924,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -19951,6 +19948,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -19966,15 +19972,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -20069,38 +20066,38 @@
     </row>
     <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
       <c r="R2" s="62" t="s">
         <v>0</v>
       </c>
@@ -20112,7 +20109,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21">
@@ -20198,7 +20195,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -20222,7 +20219,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -20308,7 +20305,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -20332,7 +20329,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21">
@@ -20418,7 +20415,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -20442,7 +20439,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21">
@@ -20528,7 +20525,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -20552,7 +20549,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21">
@@ -20638,7 +20635,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -20662,7 +20659,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21">
@@ -20748,7 +20745,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -20772,7 +20769,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21">
@@ -20858,7 +20855,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -20882,7 +20879,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21">
@@ -20968,7 +20965,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -20992,7 +20989,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21">
@@ -21078,7 +21075,7 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -21102,7 +21099,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21">
@@ -21188,7 +21185,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -21212,7 +21209,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21">
@@ -21298,7 +21295,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -21322,7 +21319,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -21408,7 +21405,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -21432,7 +21429,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -21518,7 +21515,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -21542,7 +21539,7 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -21628,7 +21625,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -21652,7 +21649,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -21738,7 +21735,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -21763,6 +21760,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -21779,15 +21785,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -21843,26 +21840,26 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -21892,7 +21889,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>21</v>
@@ -21912,7 +21909,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -21942,7 +21939,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>20</v>
@@ -21962,7 +21959,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -21992,7 +21989,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>21</v>
@@ -22012,7 +22009,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -22042,7 +22039,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>18</v>
@@ -22062,7 +22059,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -22092,7 +22089,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>21</v>
@@ -22112,7 +22109,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -22142,7 +22139,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>13</v>
@@ -22162,7 +22159,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -22192,7 +22189,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -22212,7 +22209,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -22242,7 +22239,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>21</v>
@@ -22262,7 +22259,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -22293,7 +22290,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>11</v>
@@ -22313,7 +22310,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -22343,7 +22340,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>17</v>
@@ -22363,7 +22360,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -22393,7 +22390,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>13</v>
@@ -22413,7 +22410,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -22443,7 +22440,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5">
         <v>21</v>
@@ -22463,7 +22460,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21" t="str">
@@ -22501,7 +22498,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -22513,7 +22510,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21" t="str">
@@ -22551,7 +22548,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -22563,7 +22560,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21" t="str">
@@ -22601,7 +22598,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -22614,6 +22611,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -22621,18 +22630,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -22701,34 +22698,34 @@
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -22747,7 +22744,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>9</v>
@@ -22770,7 +22767,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>8</v>
@@ -22798,7 +22795,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -22829,7 +22826,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>15</v>
@@ -22840,7 +22837,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -22868,7 +22865,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -22878,7 +22875,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>14</v>
@@ -22910,7 +22907,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>21</v>
@@ -22938,7 +22935,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -22954,7 +22951,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>7</v>
@@ -22980,7 +22977,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>24</v>
@@ -23008,7 +23005,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -23042,7 +23039,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="24" t="s">
         <v>20</v>
@@ -23050,7 +23047,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>6</v>
@@ -23078,7 +23075,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -23103,7 +23100,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>11</v>
@@ -23120,7 +23117,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>17</v>
@@ -23148,7 +23145,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -23158,7 +23155,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>9</v>
@@ -23190,7 +23187,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>23</v>
@@ -23218,7 +23215,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -23255,12 +23252,12 @@
         <v>11</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>18</v>
@@ -23288,7 +23285,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -23304,7 +23301,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>5</v>
@@ -23330,7 +23327,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>21</v>
@@ -23358,7 +23355,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -23395,12 +23392,12 @@
         <v>15</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>21</v>
@@ -23428,7 +23425,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -23478,7 +23475,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>7</v>
@@ -23498,7 +23495,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -23552,7 +23549,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -23568,7 +23565,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -23622,7 +23619,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -23638,7 +23635,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -23692,7 +23689,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -23708,7 +23705,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -23762,7 +23759,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -23779,6 +23776,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -23788,18 +23797,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -23881,42 +23878,42 @@
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="60"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -23970,7 +23967,7 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>12</v>
@@ -24006,7 +24003,7 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -24060,7 +24057,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>19</v>
@@ -24096,7 +24093,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -24150,7 +24147,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>21</v>
@@ -24186,7 +24183,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -24240,7 +24237,7 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>13</v>
@@ -24276,7 +24273,7 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -24330,7 +24327,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>19</v>
@@ -24366,7 +24363,7 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -24420,7 +24417,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>21</v>
@@ -24456,7 +24453,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -24510,7 +24507,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>14</v>
@@ -24546,7 +24543,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -24600,7 +24597,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>21</v>
@@ -24636,7 +24633,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24690,7 +24687,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>9</v>
@@ -24726,7 +24723,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -24780,7 +24777,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>13</v>
@@ -24816,7 +24813,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -24870,7 +24867,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>19</v>
@@ -24906,7 +24903,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -24960,7 +24957,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5">
         <v>19</v>
@@ -24996,7 +24993,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21">
@@ -25066,7 +25063,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -25086,7 +25083,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21">
@@ -25156,7 +25153,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -25176,7 +25173,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21">
@@ -25246,7 +25243,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -25267,16 +25264,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -25290,6 +25277,16 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -25345,26 +25342,26 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -25394,7 +25391,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>14</v>
@@ -25414,7 +25411,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -25444,7 +25441,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -25464,7 +25461,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -25494,7 +25491,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>21</v>
@@ -25514,7 +25511,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -25544,7 +25541,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>15</v>
@@ -25564,7 +25561,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -25595,7 +25592,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>17</v>
@@ -25615,7 +25612,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -25645,7 +25642,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>21</v>
@@ -25665,7 +25662,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="str">
@@ -25696,7 +25693,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -25716,7 +25713,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -25746,7 +25743,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>14</v>
@@ -25766,7 +25763,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25796,7 +25793,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>14</v>
@@ -25816,7 +25813,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -25846,7 +25843,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>22</v>
@@ -25866,7 +25863,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -25896,7 +25893,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>14</v>
@@ -25916,7 +25913,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="str">
@@ -25954,7 +25951,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -25966,7 +25963,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21" t="str">
@@ -26004,7 +26001,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -26016,7 +26013,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21" t="str">
@@ -26054,7 +26051,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -26066,7 +26063,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21" t="str">
@@ -26104,7 +26101,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -26117,6 +26114,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -26124,18 +26133,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26191,26 +26188,26 @@
     </row>
     <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -26240,7 +26237,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>21</v>
@@ -26260,7 +26257,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="str">
@@ -26291,7 +26288,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -26311,7 +26308,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -26341,7 +26338,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>8</v>
@@ -26361,7 +26358,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -26391,7 +26388,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>21</v>
@@ -26411,7 +26408,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -26442,7 +26439,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>12</v>
@@ -26462,7 +26459,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -26492,7 +26489,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>12</v>
@@ -26512,7 +26509,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -26542,7 +26539,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>14</v>
@@ -26562,7 +26559,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -26593,7 +26590,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>15</v>
@@ -26613,7 +26610,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="21" t="str">
@@ -26644,7 +26641,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>21</v>
@@ -26664,7 +26661,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -26694,7 +26691,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>12</v>
@@ -26714,7 +26711,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -26744,7 +26741,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>11</v>
@@ -26764,7 +26761,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="21" t="str">
@@ -26802,7 +26799,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -26814,7 +26811,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="21" t="str">
@@ -26852,7 +26849,7 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -26864,7 +26861,7 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="21" t="str">
@@ -26902,7 +26899,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -26914,7 +26911,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="21" t="str">
@@ -26952,7 +26949,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -26965,6 +26962,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -26972,18 +26981,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27037,22 +27034,22 @@
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="57"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="str">
@@ -27082,7 +27079,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
         <v>10</v>
@@ -27096,7 +27093,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32" t="str">
@@ -27126,7 +27123,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>21</v>
@@ -27140,7 +27137,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32" t="str">
@@ -27170,7 +27167,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>15</v>
@@ -27184,7 +27181,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -27210,7 +27207,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
         <v>13</v>
@@ -27224,7 +27221,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -27250,7 +27247,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>21</v>
@@ -27264,7 +27261,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -27290,7 +27287,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>15</v>
@@ -27304,7 +27301,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -27330,7 +27327,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
         <v>21</v>
@@ -27344,7 +27341,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -27370,7 +27367,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>12</v>
@@ -27384,7 +27381,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -27410,7 +27407,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
         <v>12</v>
@@ -27424,7 +27421,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -27450,7 +27447,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>21</v>
@@ -27464,7 +27461,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -27490,7 +27487,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>21</v>
@@ -27504,7 +27501,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -27530,7 +27527,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5">
         <v>14</v>
@@ -27544,7 +27541,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -27570,7 +27567,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
         <v>21</v>
@@ -27584,7 +27581,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32" t="str">
@@ -27617,7 +27614,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -27627,7 +27624,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32" t="str">
@@ -27657,7 +27654,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -27668,11 +27665,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -27680,12 +27678,11 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27736,21 +27733,21 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="55">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="32">
@@ -27776,7 +27773,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -27785,7 +27782,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="32">
@@ -27811,7 +27808,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -27820,7 +27817,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="32">
@@ -27846,7 +27843,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -27855,7 +27852,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
       <c r="B9" s="32">
@@ -27881,7 +27878,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -27890,7 +27887,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
       <c r="B11" s="32">
@@ -27916,7 +27913,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="56"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -27925,7 +27922,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
       <c r="B13" s="32">
@@ -27951,7 +27948,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -27960,7 +27957,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>7</v>
       </c>
       <c r="B15" s="32">
@@ -27986,7 +27983,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -27995,7 +27992,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>8</v>
       </c>
       <c r="B17" s="32">
@@ -28021,7 +28018,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -28030,7 +28027,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
       <c r="B19" s="32">
@@ -28056,7 +28053,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -28065,7 +28062,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>10</v>
       </c>
       <c r="B21" s="32">
@@ -28091,7 +28088,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -28100,7 +28097,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>11</v>
       </c>
       <c r="B23" s="32">
@@ -28126,7 +28123,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -28135,7 +28132,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="32">
@@ -28161,7 +28158,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -28170,7 +28167,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>13</v>
       </c>
       <c r="B27" s="32">
@@ -28196,7 +28193,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -28205,7 +28202,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>14</v>
       </c>
       <c r="B29" s="32">
@@ -28231,7 +28228,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -28240,7 +28237,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>15</v>
       </c>
       <c r="B31" s="32">
@@ -28269,7 +28266,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -28279,6 +28276,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -28291,11 +28293,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2Расстановки.xlsx
+++ b/2Расстановки.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="30">
   <si>
     <t>Левая площадка</t>
   </si>
@@ -164,18 +164,6 @@
   </si>
   <si>
     <t>Ксения</t>
-  </si>
-  <si>
-    <t>Петя</t>
-  </si>
-  <si>
-    <t>Петя1</t>
-  </si>
-  <si>
-    <t>Петя2</t>
-  </si>
-  <si>
-    <t>Петя3</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1009,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1076,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" s="36">
         <f>$B$1</f>
@@ -1111,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" s="36">
         <f>$F$1</f>
@@ -1146,16 +1134,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7" s="36">
         <f>$E$1</f>
@@ -1181,16 +1169,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="36">
         <f>$C$1</f>
@@ -1216,16 +1204,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F11" s="36">
         <f>$D$1</f>
@@ -1251,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13" s="36">
         <f>$B$1</f>
@@ -1286,16 +1274,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F15" s="36">
         <f>$F$1</f>
@@ -1321,16 +1309,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17" s="36">
         <f>$E$1</f>
@@ -1356,16 +1344,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F19" s="36">
         <f>$C$1</f>
@@ -1585,6 +1573,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -1597,11 +1590,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2431,6 +2419,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2443,13 +2438,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3134,12 +3122,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -3152,6 +3134,12 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3745,11 +3733,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -3762,6 +3745,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4486,14 +4474,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -4504,6 +4484,14 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5248,6 +5236,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -5264,8 +5254,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6099,6 +6087,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -6111,13 +6106,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7025,6 +7013,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -7036,14 +7032,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8030,6 +8018,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
@@ -8042,14 +8038,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9115,11 +9103,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -9135,6 +9118,11 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10281,6 +10269,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -10293,15 +10290,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -11127,13 +11115,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -11146,6 +11127,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12374,17 +12362,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -12395,6 +12372,17 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13702,18 +13690,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -13724,6 +13700,18 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -15110,16 +15098,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -15132,6 +15110,16 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -16599,6 +16587,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
@@ -16607,21 +16610,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18171,17 +18159,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -18194,6 +18171,17 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -19827,14 +19815,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -19851,6 +19831,14 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -21558,15 +21546,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -21582,6 +21561,15 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -23370,15 +23358,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
@@ -23395,6 +23374,15 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -23988,6 +23976,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -24000,11 +23993,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24831,6 +24819,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -24843,13 +24838,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25996,6 +25984,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -26008,15 +26005,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -26843,6 +26831,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -26855,13 +26850,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28008,6 +27996,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A13:A14"/>
@@ -28020,15 +28017,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -29496,6 +29484,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
@@ -29504,21 +29507,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -30346,6 +30334,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -30358,13 +30353,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
